--- a/TA buku/Results/Sentiwordnet/hasil_lex_AMBIENCE.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_lex_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -610,13 +610,13 @@
     <t>kills</t>
   </si>
   <si>
-    <t>relaxed</t>
+    <t>stylish</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>small</t>
@@ -667,7 +667,7 @@
     <t>delightful</t>
   </si>
   <si>
-    <t>like</t>
+    <t>dark</t>
   </si>
   <si>
     <t>good|hang</t>
@@ -688,6 +688,12 @@
     <t>fun</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>special|special|nothing</t>
   </si>
   <si>
@@ -760,6 +766,9 @@
     <t>attractive|attractive</t>
   </si>
   <si>
+    <t>indoor</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
@@ -767,6 +776,9 @@
   </si>
   <si>
     <t>love</t>
+  </si>
+  <si>
+    <t>-|-|-|-</t>
   </si>
   <si>
     <t>positive</t>
@@ -1167,10 +1179,10 @@
         <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1187,10 +1199,10 @@
         <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1207,10 +1219,10 @@
         <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1227,10 +1239,10 @@
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1247,10 +1259,10 @@
         <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1267,10 +1279,10 @@
         <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1287,10 +1299,10 @@
         <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1307,10 +1319,10 @@
         <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1327,10 +1339,10 @@
         <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1347,10 +1359,10 @@
         <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1367,10 +1379,10 @@
         <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1387,10 +1399,10 @@
         <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1407,10 +1419,10 @@
         <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1427,10 +1439,10 @@
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1447,10 +1459,10 @@
         <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1467,10 +1479,10 @@
         <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1487,10 +1499,10 @@
         <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1507,10 +1519,10 @@
         <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1527,10 +1539,10 @@
         <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1547,10 +1559,10 @@
         <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1567,10 +1579,10 @@
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1587,10 +1599,10 @@
         <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1607,10 +1619,10 @@
         <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1627,10 +1639,10 @@
         <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1647,10 +1659,10 @@
         <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1667,10 +1679,10 @@
         <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1687,10 +1699,10 @@
         <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1707,10 +1719,10 @@
         <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1727,10 +1739,10 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1747,10 +1759,10 @@
         <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1767,10 +1779,10 @@
         <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1787,10 +1799,10 @@
         <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1807,10 +1819,10 @@
         <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1827,10 +1839,10 @@
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1847,10 +1859,10 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1867,10 +1879,10 @@
         <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1887,10 +1899,10 @@
         <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1907,10 +1919,10 @@
         <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1927,10 +1939,10 @@
         <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1947,10 +1959,10 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1967,10 +1979,10 @@
         <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1984,13 +1996,13 @@
         <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2003,11 +2015,14 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2024,10 +2039,10 @@
         <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2041,13 +2056,13 @@
         <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2061,13 +2076,13 @@
         <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2081,13 +2096,13 @@
         <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2104,10 +2119,10 @@
         <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2121,13 +2136,13 @@
         <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2141,13 +2156,13 @@
         <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2161,13 +2176,13 @@
         <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2184,10 +2199,10 @@
         <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2201,13 +2216,13 @@
         <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2224,10 +2239,10 @@
         <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2241,13 +2256,13 @@
         <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2264,10 +2279,10 @@
         <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2281,13 +2296,13 @@
         <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2301,13 +2316,13 @@
         <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2324,10 +2339,10 @@
         <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2341,13 +2356,13 @@
         <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2361,13 +2376,13 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2384,10 +2399,10 @@
         <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2401,13 +2416,13 @@
         <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2421,13 +2436,13 @@
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2444,10 +2459,10 @@
         <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2461,13 +2476,13 @@
         <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2481,13 +2496,13 @@
         <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2501,13 +2516,13 @@
         <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2521,13 +2536,13 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2541,13 +2556,13 @@
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2561,13 +2576,13 @@
         <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2581,13 +2596,13 @@
         <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2601,13 +2616,13 @@
         <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F74" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2621,13 +2636,13 @@
         <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2641,13 +2656,13 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2661,13 +2676,13 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2681,13 +2696,13 @@
         <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2701,13 +2716,13 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2720,11 +2735,14 @@
       <c r="C80" t="s">
         <v>174</v>
       </c>
+      <c r="D80" t="s">
+        <v>225</v>
+      </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2741,10 +2759,10 @@
         <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2758,13 +2776,13 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F82" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2778,13 +2796,13 @@
         <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2798,13 +2816,13 @@
         <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2821,10 +2839,10 @@
         <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F85" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2837,11 +2855,14 @@
       <c r="C86" t="s">
         <v>180</v>
       </c>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F86" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2858,10 +2879,10 @@
         <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2878,10 +2899,10 @@
         <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2898,10 +2919,10 @@
         <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2918,10 +2939,10 @@
         <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2934,11 +2955,14 @@
       <c r="C91" t="s">
         <v>185</v>
       </c>
+      <c r="D91" t="s">
+        <v>225</v>
+      </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2952,13 +2976,13 @@
         <v>186</v>
       </c>
       <c r="D92" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F92" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
